--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mfng</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H2">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I2">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J2">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>50.28308186163778</v>
+        <v>388.0173849052522</v>
       </c>
       <c r="R2">
-        <v>50.28308186163778</v>
+        <v>3492.15646414727</v>
       </c>
       <c r="S2">
-        <v>0.0354519575207372</v>
+        <v>0.1684355222207271</v>
       </c>
       <c r="T2">
-        <v>0.0354519575207372</v>
+        <v>0.1684355222207271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H3">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I3">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J3">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>294.0987038720951</v>
+        <v>387.5795469919311</v>
       </c>
       <c r="R3">
-        <v>294.0987038720951</v>
+        <v>3488.21592292738</v>
       </c>
       <c r="S3">
-        <v>0.2073535346394893</v>
+        <v>0.1682454599697888</v>
       </c>
       <c r="T3">
-        <v>0.2073535346394893</v>
+        <v>0.1682454599697888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H4">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I4">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J4">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>434.5729367170974</v>
+        <v>635.940461189894</v>
       </c>
       <c r="R4">
-        <v>434.5729367170974</v>
+        <v>5723.464150709045</v>
       </c>
       <c r="S4">
-        <v>0.3063945311576163</v>
+        <v>0.2760571248836328</v>
       </c>
       <c r="T4">
-        <v>0.3063945311576163</v>
+        <v>0.2760571248836328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.7089138409594</v>
+        <v>14.09137833333333</v>
       </c>
       <c r="H5">
-        <v>10.7089138409594</v>
+        <v>42.274135</v>
       </c>
       <c r="I5">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201467</v>
       </c>
       <c r="J5">
-        <v>0.8005867932936812</v>
+        <v>0.8196825364201468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N5">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q5">
-        <v>356.5529922073803</v>
+        <v>476.72863322926</v>
       </c>
       <c r="R5">
-        <v>356.5529922073803</v>
+        <v>4290.55769906334</v>
       </c>
       <c r="S5">
-        <v>0.2513867699758384</v>
+        <v>0.206944429345998</v>
       </c>
       <c r="T5">
-        <v>0.2513867699758384</v>
+        <v>0.206944429345998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H6">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I6">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J6">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N6">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q6">
-        <v>12.52470148283755</v>
+        <v>6.380375444074666</v>
       </c>
       <c r="R6">
-        <v>12.52470148283755</v>
+        <v>57.42337899667199</v>
       </c>
       <c r="S6">
-        <v>0.008830508562527647</v>
+        <v>0.002769674534426957</v>
       </c>
       <c r="T6">
-        <v>0.008830508562527647</v>
+        <v>0.002769674534426957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H7">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I7">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J7">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N7">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q7">
-        <v>73.25522494073029</v>
+        <v>6.373175843285334</v>
       </c>
       <c r="R7">
-        <v>73.25522494073029</v>
+        <v>57.358582589568</v>
       </c>
       <c r="S7">
-        <v>0.05164840790620207</v>
+        <v>0.002766549240133692</v>
       </c>
       <c r="T7">
-        <v>0.05164840790620207</v>
+        <v>0.002766549240133692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.66741703367573</v>
+        <v>0.231712</v>
       </c>
       <c r="H8">
-        <v>2.66741703367573</v>
+        <v>0.695136</v>
       </c>
       <c r="I8">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="J8">
-        <v>0.1994132067063189</v>
+        <v>0.01347847424050084</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N8">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q8">
-        <v>108.2450817131441</v>
+        <v>10.45710594503467</v>
       </c>
       <c r="R8">
-        <v>108.2450817131441</v>
+        <v>94.11395350531201</v>
       </c>
       <c r="S8">
-        <v>0.07631791641734749</v>
+        <v>0.004539353568396111</v>
       </c>
       <c r="T8">
-        <v>0.07631791641734749</v>
+        <v>0.004539353568396112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.231712</v>
+      </c>
+      <c r="H9">
+        <v>0.695136</v>
+      </c>
+      <c r="I9">
+        <v>0.01347847424050084</v>
+      </c>
+      <c r="J9">
+        <v>0.01347847424050084</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.831228</v>
+      </c>
+      <c r="N9">
+        <v>101.493684</v>
+      </c>
+      <c r="O9">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P9">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q9">
+        <v>7.839101502336001</v>
+      </c>
+      <c r="R9">
+        <v>70.55191352102401</v>
+      </c>
+      <c r="S9">
+        <v>0.003402896897544081</v>
+      </c>
+      <c r="T9">
+        <v>0.003402896897544081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J10">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.53580066666666</v>
+      </c>
+      <c r="N10">
+        <v>82.60740199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2054887285464767</v>
+      </c>
+      <c r="P10">
+        <v>0.2054887285464768</v>
+      </c>
+      <c r="Q10">
+        <v>75.3196209593562</v>
+      </c>
+      <c r="R10">
+        <v>677.8765886342059</v>
+      </c>
+      <c r="S10">
+        <v>0.03269569917042307</v>
+      </c>
+      <c r="T10">
+        <v>0.03269569917042307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J11">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N11">
+        <v>82.514188</v>
+      </c>
+      <c r="O11">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="P11">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="Q11">
+        <v>75.2346304745071</v>
+      </c>
+      <c r="R11">
+        <v>677.111674270564</v>
+      </c>
+      <c r="S11">
+        <v>0.03265880541963701</v>
+      </c>
+      <c r="T11">
+        <v>0.03265880541963701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J12">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>45.12975566666668</v>
+      </c>
+      <c r="N12">
+        <v>135.389267</v>
+      </c>
+      <c r="O12">
+        <v>0.3367854170582615</v>
+      </c>
+      <c r="P12">
+        <v>0.3367854170582616</v>
+      </c>
+      <c r="Q12">
+        <v>123.4449701299779</v>
+      </c>
+      <c r="R12">
+        <v>1111.004731169801</v>
+      </c>
+      <c r="S12">
+        <v>0.05358656291764372</v>
+      </c>
+      <c r="T12">
+        <v>0.05358656291764373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.735334333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.206002999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="J13">
+        <v>0.1591118860956311</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.831228</v>
+      </c>
+      <c r="N13">
+        <v>101.493684</v>
+      </c>
+      <c r="O13">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P13">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q13">
+        <v>92.539719487228</v>
+      </c>
+      <c r="R13">
+        <v>832.8574753850519</v>
+      </c>
+      <c r="S13">
+        <v>0.04017081858792728</v>
+      </c>
+      <c r="T13">
+        <v>0.04017081858792728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.66741703367573</v>
-      </c>
-      <c r="H9">
-        <v>2.66741703367573</v>
-      </c>
-      <c r="I9">
-        <v>0.1994132067063189</v>
-      </c>
-      <c r="J9">
-        <v>0.1994132067063189</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>33.2949725343422</v>
-      </c>
-      <c r="N9">
-        <v>33.2949725343422</v>
-      </c>
-      <c r="O9">
-        <v>0.31400314379608</v>
-      </c>
-      <c r="P9">
-        <v>0.31400314379608</v>
-      </c>
-      <c r="Q9">
-        <v>88.81157687386998</v>
-      </c>
-      <c r="R9">
-        <v>88.81157687386998</v>
-      </c>
-      <c r="S9">
-        <v>0.06261637382024167</v>
-      </c>
-      <c r="T9">
-        <v>0.06261637382024167</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.398516</v>
+      </c>
+      <c r="I14">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J14">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>27.53580066666666</v>
+      </c>
+      <c r="N14">
+        <v>82.60740199999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2054887285464767</v>
+      </c>
+      <c r="P14">
+        <v>0.2054887285464768</v>
+      </c>
+      <c r="Q14">
+        <v>3.657819046159111</v>
+      </c>
+      <c r="R14">
+        <v>32.92037141543199</v>
+      </c>
+      <c r="S14">
+        <v>0.001587832620899641</v>
+      </c>
+      <c r="T14">
+        <v>0.001587832620899642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.398516</v>
+      </c>
+      <c r="I15">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J15">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N15">
+        <v>82.514188</v>
+      </c>
+      <c r="O15">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="P15">
+        <v>0.2052568555438283</v>
+      </c>
+      <c r="Q15">
+        <v>3.653691571667555</v>
+      </c>
+      <c r="R15">
+        <v>32.883224145008</v>
+      </c>
+      <c r="S15">
+        <v>0.001586040914268745</v>
+      </c>
+      <c r="T15">
+        <v>0.001586040914268745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.398516</v>
+      </c>
+      <c r="I16">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J16">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.12975566666668</v>
+      </c>
+      <c r="N16">
+        <v>135.389267</v>
+      </c>
+      <c r="O16">
+        <v>0.3367854170582615</v>
+      </c>
+      <c r="P16">
+        <v>0.3367854170582616</v>
+      </c>
+      <c r="Q16">
+        <v>5.994976569752446</v>
+      </c>
+      <c r="R16">
+        <v>53.954789127772</v>
+      </c>
+      <c r="S16">
+        <v>0.002602375688588916</v>
+      </c>
+      <c r="T16">
+        <v>0.002602375688588916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1328386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.398516</v>
+      </c>
+      <c r="I17">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="J17">
+        <v>0.007727103243721277</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.831228</v>
+      </c>
+      <c r="N17">
+        <v>101.493684</v>
+      </c>
+      <c r="O17">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="P17">
+        <v>0.2524689988514334</v>
+      </c>
+      <c r="Q17">
+        <v>4.494095219216</v>
+      </c>
+      <c r="R17">
+        <v>40.446856972944</v>
+      </c>
+      <c r="S17">
+        <v>0.001950854019963974</v>
+      </c>
+      <c r="T17">
+        <v>0.001950854019963974</v>
       </c>
     </row>
   </sheetData>
